--- a/Solutions/data/demand_function.xlsx
+++ b/Solutions/data/demand_function.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jen/FTP/Solutions/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jen/FTP/or-final/Solutions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A82C60D-B441-434C-B94E-8D6AC7EB25D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26BAF47-4CD3-2D47-9B0B-B645EAD38855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{510EDD2A-00F7-404E-84DD-B96AA5710553}"/>
+    <workbookView xWindow="3180" yWindow="2180" windowWidth="14400" windowHeight="13380" xr2:uid="{510EDD2A-00F7-404E-84DD-B96AA5710553}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,13 +126,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PMingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,11 +150,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,15 +468,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2DAAFC-2A4D-46C9-AADB-53814AB42E26}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,10 +498,10 @@
         <v>104</v>
       </c>
       <c r="C2">
-        <v>-2827.4</v>
+        <v>-6.0000000000000002E-5</v>
       </c>
       <c r="D2">
-        <v>200752</v>
+        <v>30.274999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -523,10 +512,10 @@
         <v>109</v>
       </c>
       <c r="C3">
-        <v>-6172.9</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
       <c r="D3">
-        <v>449106</v>
+        <v>30.715</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -537,10 +526,10 @@
         <v>241</v>
       </c>
       <c r="C4">
-        <v>-1980.8</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>85186</v>
+        <v>27.579000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -551,10 +540,10 @@
         <v>338</v>
       </c>
       <c r="C5">
-        <v>-2504.8000000000002</v>
+        <v>-1E-4</v>
       </c>
       <c r="D5">
-        <v>109048</v>
+        <v>26.032</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -565,10 +554,10 @@
         <v>400</v>
       </c>
       <c r="C6">
-        <v>-1548.2</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D6">
-        <v>68717</v>
+        <v>26.975000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -579,10 +568,10 @@
         <v>512</v>
       </c>
       <c r="C7">
-        <v>-510.47</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D7">
-        <v>31958</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -593,10 +582,10 @@
         <v>514</v>
       </c>
       <c r="C8">
-        <v>-7079.6</v>
+        <v>-1E-4</v>
       </c>
       <c r="D8">
-        <v>175488</v>
+        <v>22.777000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -607,10 +596,10 @@
         <v>540</v>
       </c>
       <c r="C9">
-        <v>-48.847999999999999</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="D9">
-        <v>2784.9</v>
+        <v>28.923999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -621,10 +610,10 @@
         <v>648</v>
       </c>
       <c r="C10">
-        <v>-6081</v>
+        <v>-3.0000000000000001E-5</v>
       </c>
       <c r="D10">
-        <v>460301</v>
+        <v>29.548999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -635,10 +624,10 @@
         <v>800</v>
       </c>
       <c r="C11">
-        <v>-2367</v>
+        <v>-1E-4</v>
       </c>
       <c r="D11">
-        <v>125038</v>
+        <v>29.728999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -649,10 +638,10 @@
         <v>830</v>
       </c>
       <c r="C12">
-        <v>-619.07000000000005</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="D12">
-        <v>24493</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -663,10 +652,10 @@
         <v>900</v>
       </c>
       <c r="C13">
-        <v>-720.07</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D13">
-        <v>41995</v>
+        <v>24.783000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -677,10 +666,10 @@
         <v>950</v>
       </c>
       <c r="C14">
-        <v>-444.54</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
       <c r="D14">
-        <v>32149</v>
+        <v>37.640999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -691,10 +680,10 @@
         <v>930</v>
       </c>
       <c r="C15">
-        <v>-106.78</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D15">
-        <v>14526</v>
+        <v>27.199000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -705,10 +694,10 @@
         <v>260</v>
       </c>
       <c r="C16">
-        <v>-70.08</v>
+        <v>-6.9999999999999999E-4</v>
       </c>
       <c r="D16">
-        <v>11259</v>
+        <v>32.051000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -719,10 +708,10 @@
         <v>420</v>
       </c>
       <c r="C17">
-        <v>-553.27</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="D17">
-        <v>54320</v>
+        <v>26.190999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -733,14 +722,11 @@
         <v>220</v>
       </c>
       <c r="C18">
-        <v>-2093.5</v>
+        <v>-9.0000000000000006E-5</v>
       </c>
       <c r="D18">
-        <v>126608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
+        <v>26.184999999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
